--- a/PriporityApp_2/wwwroot/Uploads/Orders5.xlsx
+++ b/PriporityApp_2/wwwroot/Uploads/Orders5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\P.Tool\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD177C1-469E-455D-A94C-D9CBF0D43B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E63C3D6-7861-4F36-9104-01A10D0B265D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1159,7 +1159,7 @@
   <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>44604</v>
+        <v>44608</v>
       </c>
       <c r="B2" t="s">
         <v>45</v>
@@ -1281,7 +1281,7 @@
         <v>83</v>
       </c>
       <c r="F2">
-        <v>2019742588</v>
+        <v>2019742589</v>
       </c>
       <c r="G2" t="s">
         <v>24</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>44604</v>
+        <v>44608</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
@@ -1358,7 +1358,7 @@
         <v>84</v>
       </c>
       <c r="F3">
-        <v>2012259649</v>
+        <v>2019742590</v>
       </c>
       <c r="G3" t="s">
         <v>24</v>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>44604</v>
+        <v>44608</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -1435,7 +1435,7 @@
         <v>83</v>
       </c>
       <c r="F4">
-        <v>2011878004</v>
+        <v>2019742591</v>
       </c>
       <c r="G4" t="s">
         <v>24</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>44604</v>
+        <v>44608</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
@@ -1512,7 +1512,7 @@
         <v>85</v>
       </c>
       <c r="F5">
-        <v>2013054731</v>
+        <v>2019742592</v>
       </c>
       <c r="G5" t="s">
         <v>24</v>
@@ -1574,7 +1574,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>44604</v>
+        <v>44608</v>
       </c>
       <c r="B6" t="s">
         <v>41</v>
@@ -1589,7 +1589,7 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>2011415742</v>
+        <v>2019742593</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>44604</v>
+        <v>44608</v>
       </c>
       <c r="B7" t="s">
         <v>41</v>
@@ -1666,7 +1666,7 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>2013415776</v>
+        <v>2019742594</v>
       </c>
       <c r="G7" t="s">
         <v>24</v>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>44604</v>
+        <v>44608</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
@@ -1743,7 +1743,7 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>2014685648</v>
+        <v>2019742595</v>
       </c>
       <c r="G8" t="s">
         <v>24</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>44604</v>
+        <v>44608</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
@@ -1820,7 +1820,7 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>2014742752</v>
+        <v>2019742596</v>
       </c>
       <c r="G9" t="s">
         <v>24</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>44604</v>
+        <v>44608</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -1897,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>2014888644</v>
+        <v>2019742597</v>
       </c>
       <c r="G10" t="s">
         <v>24</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>44604</v>
+        <v>44608</v>
       </c>
       <c r="B11" t="s">
         <v>45</v>
@@ -1974,7 +1974,7 @@
         <v>83</v>
       </c>
       <c r="F11">
-        <v>2012742587</v>
+        <v>2019742598</v>
       </c>
       <c r="G11" t="s">
         <v>24</v>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>44604</v>
+        <v>44608</v>
       </c>
       <c r="B12" t="s">
         <v>45</v>
@@ -2051,7 +2051,7 @@
         <v>83</v>
       </c>
       <c r="F12">
-        <v>2012742589</v>
+        <v>2019742599</v>
       </c>
       <c r="G12" t="s">
         <v>24</v>
